--- a/biology/Botanique/Begonia_rostrata/Begonia_rostrata.xlsx
+++ b/biology/Botanique/Begonia_rostrata/Begonia_rostrata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Begonia rostrata est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Afrique. L'espèce fait partie de la section Rostrobegonia. Elle a été décrite en 1871 par Joseph Dalton Hooker (1817-1911), à la suite des travaux de Friedrich Welwitsch (1806-1872). L'épithète spécifique rostrata signifie « pourvue d'un bec »[2], en référence à la forme caractéristique du fruit.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Begonia rostrata est une espèce de plantes de la famille des Begoniaceae. Ce bégonia est originaire d'Afrique. L'espèce fait partie de la section Rostrobegonia. Elle a été décrite en 1871 par Joseph Dalton Hooker (1817-1911), à la suite des travaux de Friedrich Welwitsch (1806-1872). L'épithète spécifique rostrata signifie « pourvue d'un bec », en référence à la forme caractéristique du fruit.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Feuillage
@@ -545,9 +559,11 @@
           <t>Répartition géographique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Angola ; Côte d'Ivoire ; Ghana ; Guinée ; Libéria ; Nigéria ; Sierra Leone ; Soudan ; Togo ; Zaire[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est originaire des pays suivants : Angola ; Côte d'Ivoire ; Ghana ; Guinée ; Libéria ; Nigéria ; Sierra Leone ; Soudan ; Togo ; Zaire.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Liste des variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (23 février 2017)[4] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (23 février 2017) (Attention liste brute contenant possiblement des synonymes) :
 variété Begonia rostrata var. argutiserrata Fernandes, A.
 variété Begonia rostrata var. brachyptera Fernandes, Angelica
 variété Begonia rostrata var. rostrata Welw. ex Hook. f.</t>
